--- a/testdata/metadata.xlsx
+++ b/testdata/metadata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaomeizhang/git/Sample/testdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaomeizhang/git/examples/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F265F6-85E2-8543-83B8-7032D5EA685E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{16CDC5AA-14BA-3945-AA22-945C41C9B075}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16660" xr2:uid="{2EB031C0-9E16-3047-9870-4FCC9694F622}"/>
   </bookViews>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1954" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1946" uniqueCount="669">
   <si>
     <t>id</t>
   </si>
@@ -716,9 +716,6 @@
     <t>10057_internet_service</t>
   </si>
   <si>
-    <t>v_teambuilding_cost</t>
-  </si>
-  <si>
     <t>团队活动</t>
     <rPh sb="0" eb="2">
       <t>tuan dui</t>
@@ -852,9 +849,6 @@
     <t>10072_internet_service</t>
   </si>
   <si>
-    <t>v_attendance_pay</t>
-  </si>
-  <si>
     <t>出勤工资</t>
   </si>
   <si>
@@ -914,17 +908,11 @@
     <t>10079_internet_service</t>
   </si>
   <si>
-    <t>v_sla_award</t>
-  </si>
-  <si>
     <t>业务奖惩</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>10080_internet_service</t>
-  </si>
-  <si>
-    <t>v_admin_award</t>
   </si>
   <si>
     <t>行政奖惩</t>
@@ -2380,18 +2368,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>预算人数</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>10265_internet_service</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>v_budget_number_ people</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>离职日期</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2409,6 +2385,22 @@
   </si>
   <si>
     <t>Team</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>v_attendance_pay</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>v_admin_award</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>v_sla_award</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>v_teambuilding_cost</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2422,7 +2414,7 @@
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2537,14 +2529,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFC00000"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2627,7 +2611,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2708,12 +2692,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3033,10 +3011,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA74C303-B588-0C4E-8B44-6A6932D24602}">
-  <dimension ref="A1:AH245"/>
+  <dimension ref="A1:AH244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A231" workbookViewId="0">
-      <selection activeCell="A202" sqref="A202:A244"/>
+    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
+      <selection activeCell="A244" sqref="A244:XFD244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3059,7 +3037,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -3287,7 +3265,7 @@
         <v>15</v>
       </c>
       <c r="J7" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
     </row>
     <row r="8" spans="1:34" ht="34">
@@ -3452,7 +3430,7 @@
         <v>52</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
@@ -4409,7 +4387,7 @@
         <v>153</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="D45" s="16" t="s">
         <v>154</v>
@@ -4529,10 +4507,10 @@
         <v>164</v>
       </c>
       <c r="C49" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="D49" s="16" t="s">
         <v>165</v>
-      </c>
-      <c r="D49" s="16" t="s">
-        <v>166</v>
       </c>
       <c r="E49" t="s">
         <v>100</v>
@@ -4556,19 +4534,19 @@
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="D50" s="16" t="s">
         <v>11</v>
       </c>
       <c r="E50" t="s">
+        <v>167</v>
+      </c>
+      <c r="F50" t="s">
         <v>168</v>
-      </c>
-      <c r="F50" t="s">
-        <v>169</v>
       </c>
       <c r="G50" t="s">
         <v>14</v>
@@ -4586,19 +4564,19 @@
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="D51" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="D51" s="18" t="s">
-        <v>172</v>
-      </c>
       <c r="E51" t="s">
+        <v>167</v>
+      </c>
+      <c r="F51" t="s">
         <v>168</v>
-      </c>
-      <c r="F51" t="s">
-        <v>169</v>
       </c>
       <c r="G51" t="s">
         <v>14</v>
@@ -4616,19 +4594,19 @@
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C52" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="D52" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="D52" s="18" t="s">
-        <v>175</v>
-      </c>
       <c r="E52" t="s">
+        <v>167</v>
+      </c>
+      <c r="F52" t="s">
         <v>168</v>
-      </c>
-      <c r="F52" t="s">
-        <v>169</v>
       </c>
       <c r="G52" t="s">
         <v>14</v>
@@ -4646,19 +4624,19 @@
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C53" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="D53" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="D53" s="18" t="s">
-        <v>178</v>
-      </c>
       <c r="E53" t="s">
+        <v>167</v>
+      </c>
+      <c r="F53" t="s">
         <v>168</v>
-      </c>
-      <c r="F53" t="s">
-        <v>169</v>
       </c>
       <c r="G53" t="s">
         <v>14</v>
@@ -4676,25 +4654,25 @@
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="D54" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="C54" s="5" t="s">
-        <v>641</v>
-      </c>
-      <c r="D54" s="18" t="s">
+      <c r="E54" t="s">
         <v>180</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>181</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
+        <v>14</v>
+      </c>
+      <c r="H54" t="s">
         <v>182</v>
-      </c>
-      <c r="G54" t="s">
-        <v>14</v>
-      </c>
-      <c r="H54" t="s">
-        <v>183</v>
       </c>
       <c r="J54" t="s">
         <v>94</v>
@@ -4706,25 +4684,25 @@
         <v>54</v>
       </c>
       <c r="B55" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="D55" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="D55" s="18" t="s">
-        <v>186</v>
-      </c>
       <c r="E55" t="s">
+        <v>180</v>
+      </c>
+      <c r="F55" t="s">
         <v>181</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
+        <v>14</v>
+      </c>
+      <c r="H55" t="s">
         <v>182</v>
-      </c>
-      <c r="G55" t="s">
-        <v>14</v>
-      </c>
-      <c r="H55" t="s">
-        <v>183</v>
       </c>
       <c r="J55" t="s">
         <v>56</v>
@@ -4736,25 +4714,25 @@
         <v>55</v>
       </c>
       <c r="B56" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C56" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="D56" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="D56" s="18" t="s">
-        <v>189</v>
-      </c>
       <c r="E56" t="s">
+        <v>180</v>
+      </c>
+      <c r="F56" t="s">
         <v>181</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
+        <v>14</v>
+      </c>
+      <c r="H56" t="s">
         <v>182</v>
-      </c>
-      <c r="G56" t="s">
-        <v>14</v>
-      </c>
-      <c r="H56" t="s">
-        <v>183</v>
       </c>
       <c r="J56" t="s">
         <v>56</v>
@@ -4766,25 +4744,25 @@
         <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C57" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="D57" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="D57" s="18" t="s">
+      <c r="E57" t="s">
+        <v>180</v>
+      </c>
+      <c r="F57" t="s">
+        <v>181</v>
+      </c>
+      <c r="G57" t="s">
+        <v>14</v>
+      </c>
+      <c r="H57" t="s">
         <v>192</v>
-      </c>
-      <c r="E57" t="s">
-        <v>181</v>
-      </c>
-      <c r="F57" t="s">
-        <v>182</v>
-      </c>
-      <c r="G57" t="s">
-        <v>14</v>
-      </c>
-      <c r="H57" t="s">
-        <v>193</v>
       </c>
       <c r="J57" t="s">
         <v>56</v>
@@ -4796,25 +4774,25 @@
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="D58" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="D58" s="18" t="s">
-        <v>196</v>
-      </c>
       <c r="E58" t="s">
+        <v>180</v>
+      </c>
+      <c r="F58" t="s">
         <v>181</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
+        <v>14</v>
+      </c>
+      <c r="H58" t="s">
         <v>182</v>
-      </c>
-      <c r="G58" t="s">
-        <v>14</v>
-      </c>
-      <c r="H58" t="s">
-        <v>183</v>
       </c>
       <c r="J58" t="s">
         <v>56</v>
@@ -4826,25 +4804,25 @@
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C59" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="D59" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="D59" s="18" t="s">
-        <v>199</v>
-      </c>
       <c r="E59" t="s">
+        <v>180</v>
+      </c>
+      <c r="F59" t="s">
         <v>181</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
+        <v>14</v>
+      </c>
+      <c r="H59" t="s">
         <v>182</v>
-      </c>
-      <c r="G59" t="s">
-        <v>14</v>
-      </c>
-      <c r="H59" t="s">
-        <v>183</v>
       </c>
       <c r="J59" t="s">
         <v>56</v>
@@ -4856,25 +4834,25 @@
         <v>59</v>
       </c>
       <c r="B60" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="D60" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="C60" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="D60" s="18" t="s">
-        <v>202</v>
-      </c>
       <c r="E60" t="s">
+        <v>180</v>
+      </c>
+      <c r="F60" t="s">
         <v>181</v>
       </c>
-      <c r="F60" t="s">
+      <c r="G60" t="s">
+        <v>14</v>
+      </c>
+      <c r="H60" t="s">
         <v>182</v>
-      </c>
-      <c r="G60" t="s">
-        <v>14</v>
-      </c>
-      <c r="H60" t="s">
-        <v>183</v>
       </c>
       <c r="J60" t="s">
         <v>56</v>
@@ -4886,25 +4864,25 @@
         <v>60</v>
       </c>
       <c r="B61" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D61" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="C61" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="D61" s="18" t="s">
-        <v>205</v>
-      </c>
       <c r="E61" t="s">
+        <v>180</v>
+      </c>
+      <c r="F61" t="s">
         <v>181</v>
       </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
+        <v>14</v>
+      </c>
+      <c r="H61" t="s">
         <v>182</v>
-      </c>
-      <c r="G61" t="s">
-        <v>14</v>
-      </c>
-      <c r="H61" t="s">
-        <v>183</v>
       </c>
       <c r="J61" t="s">
         <v>56</v>
@@ -4916,25 +4894,25 @@
         <v>61</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E62" t="s">
+        <v>180</v>
+      </c>
+      <c r="F62" t="s">
         <v>181</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62" t="s">
+        <v>14</v>
+      </c>
+      <c r="H62" t="s">
         <v>182</v>
-      </c>
-      <c r="G62" t="s">
-        <v>14</v>
-      </c>
-      <c r="H62" t="s">
-        <v>183</v>
       </c>
       <c r="J62" t="s">
         <v>56</v>
@@ -4946,25 +4924,25 @@
         <v>62</v>
       </c>
       <c r="B63" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D63" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="C63" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="D63" s="18" t="s">
-        <v>210</v>
-      </c>
       <c r="E63" t="s">
+        <v>180</v>
+      </c>
+      <c r="F63" t="s">
         <v>181</v>
       </c>
-      <c r="F63" t="s">
+      <c r="G63" t="s">
+        <v>14</v>
+      </c>
+      <c r="H63" t="s">
         <v>182</v>
-      </c>
-      <c r="G63" t="s">
-        <v>14</v>
-      </c>
-      <c r="H63" t="s">
-        <v>183</v>
       </c>
       <c r="J63" t="s">
         <v>56</v>
@@ -4976,25 +4954,25 @@
         <v>63</v>
       </c>
       <c r="B64" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D64" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="C64" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="D64" s="18" t="s">
-        <v>213</v>
-      </c>
       <c r="E64" t="s">
+        <v>180</v>
+      </c>
+      <c r="F64" t="s">
         <v>181</v>
       </c>
-      <c r="F64" t="s">
-        <v>182</v>
-      </c>
       <c r="G64" t="s">
         <v>14</v>
       </c>
       <c r="H64" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J64" t="s">
         <v>56</v>
@@ -5006,25 +4984,25 @@
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D65" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="C65" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="D65" s="18" t="s">
-        <v>216</v>
-      </c>
       <c r="E65" t="s">
+        <v>180</v>
+      </c>
+      <c r="F65" t="s">
         <v>181</v>
       </c>
-      <c r="F65" t="s">
+      <c r="G65" t="s">
+        <v>14</v>
+      </c>
+      <c r="H65" t="s">
         <v>182</v>
-      </c>
-      <c r="G65" t="s">
-        <v>14</v>
-      </c>
-      <c r="H65" t="s">
-        <v>183</v>
       </c>
       <c r="J65" t="s">
         <v>56</v>
@@ -5036,25 +5014,25 @@
         <v>65</v>
       </c>
       <c r="B66" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D66" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="C66" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="D66" s="18" t="s">
-        <v>219</v>
-      </c>
       <c r="E66" t="s">
+        <v>180</v>
+      </c>
+      <c r="F66" t="s">
         <v>181</v>
       </c>
-      <c r="F66" t="s">
+      <c r="G66" t="s">
+        <v>14</v>
+      </c>
+      <c r="H66" t="s">
         <v>182</v>
-      </c>
-      <c r="G66" t="s">
-        <v>14</v>
-      </c>
-      <c r="H66" t="s">
-        <v>183</v>
       </c>
       <c r="J66" t="s">
         <v>56</v>
@@ -5066,25 +5044,25 @@
         <v>66</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>221</v>
+        <v>667</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E67" t="s">
+        <v>180</v>
+      </c>
+      <c r="F67" t="s">
         <v>181</v>
       </c>
-      <c r="F67" t="s">
+      <c r="G67" t="s">
+        <v>14</v>
+      </c>
+      <c r="H67" t="s">
         <v>182</v>
-      </c>
-      <c r="G67" t="s">
-        <v>14</v>
-      </c>
-      <c r="H67" t="s">
-        <v>183</v>
       </c>
       <c r="J67" t="s">
         <v>56</v>
@@ -5096,25 +5074,25 @@
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>224</v>
+        <v>666</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E68" t="s">
+        <v>180</v>
+      </c>
+      <c r="F68" t="s">
         <v>181</v>
       </c>
-      <c r="F68" t="s">
+      <c r="G68" t="s">
+        <v>14</v>
+      </c>
+      <c r="H68" t="s">
         <v>182</v>
-      </c>
-      <c r="G68" t="s">
-        <v>14</v>
-      </c>
-      <c r="H68" t="s">
-        <v>183</v>
       </c>
       <c r="J68" t="s">
         <v>56</v>
@@ -5126,25 +5104,25 @@
         <v>68</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D69" s="18" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E69" t="s">
+        <v>180</v>
+      </c>
+      <c r="F69" t="s">
         <v>181</v>
       </c>
-      <c r="F69" t="s">
+      <c r="G69" t="s">
+        <v>14</v>
+      </c>
+      <c r="H69" t="s">
         <v>182</v>
-      </c>
-      <c r="G69" t="s">
-        <v>14</v>
-      </c>
-      <c r="H69" t="s">
-        <v>183</v>
       </c>
       <c r="J69" t="s">
         <v>56</v>
@@ -5156,25 +5134,25 @@
         <v>69</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D70" s="18" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E70" t="s">
+        <v>180</v>
+      </c>
+      <c r="F70" t="s">
         <v>181</v>
       </c>
-      <c r="F70" t="s">
+      <c r="G70" t="s">
+        <v>14</v>
+      </c>
+      <c r="H70" t="s">
         <v>182</v>
-      </c>
-      <c r="G70" t="s">
-        <v>14</v>
-      </c>
-      <c r="H70" t="s">
-        <v>183</v>
       </c>
       <c r="J70" t="s">
         <v>56</v>
@@ -5186,25 +5164,25 @@
         <v>70</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E71" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F71" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="G71" t="s">
         <v>14</v>
       </c>
       <c r="H71" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J71" t="s">
         <v>94</v>
@@ -5216,28 +5194,28 @@
         <v>71</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E72" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F72" t="s">
+        <v>231</v>
+      </c>
+      <c r="G72" t="s">
+        <v>14</v>
+      </c>
+      <c r="H72" t="s">
+        <v>182</v>
+      </c>
+      <c r="J72" t="s">
         <v>235</v>
-      </c>
-      <c r="G72" t="s">
-        <v>14</v>
-      </c>
-      <c r="H72" t="s">
-        <v>183</v>
-      </c>
-      <c r="J72" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="34">
@@ -5246,25 +5224,25 @@
         <v>72</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E73" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F73" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="G73" t="s">
         <v>14</v>
       </c>
       <c r="H73" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J73" t="s">
         <v>105</v>
@@ -5276,28 +5254,28 @@
         <v>73</v>
       </c>
       <c r="B74" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D74" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="E74" t="s">
+        <v>242</v>
+      </c>
+      <c r="F74" t="s">
         <v>243</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="G74" t="s">
         <v>244</v>
       </c>
-      <c r="D74" s="19" t="s">
-        <v>245</v>
-      </c>
-      <c r="E74" t="s">
-        <v>246</v>
-      </c>
-      <c r="F74" t="s">
-        <v>247</v>
-      </c>
-      <c r="G74" t="s">
-        <v>248</v>
-      </c>
       <c r="H74" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J74" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="34">
@@ -5306,25 +5284,25 @@
         <v>74</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E75" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F75" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G75" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H75" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J75" t="s">
         <v>105</v>
@@ -5336,25 +5314,25 @@
         <v>75</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E76" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F76" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G76" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H76" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J76" t="s">
         <v>105</v>
@@ -5366,25 +5344,25 @@
         <v>76</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E77" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F77" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G77" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H77" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J77" t="s">
         <v>105</v>
@@ -5396,25 +5374,25 @@
         <v>77</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D78" s="19" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E78" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F78" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G78" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H78" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J78" t="s">
         <v>105</v>
@@ -5426,25 +5404,25 @@
         <v>78</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D79" s="19" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E79" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F79" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G79" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H79" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J79" t="s">
         <v>105</v>
@@ -5456,25 +5434,25 @@
         <v>79</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D80" s="19" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E80" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F80" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G80" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H80" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J80" t="s">
         <v>118</v>
@@ -5486,25 +5464,25 @@
         <v>80</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D81" s="19" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E81" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F81" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G81" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H81" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J81" t="s">
         <v>105</v>
@@ -5516,25 +5494,25 @@
         <v>81</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D82" s="19" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E82" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F82" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G82" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H82" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J82" t="s">
         <v>105</v>
@@ -5546,25 +5524,25 @@
         <v>82</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D83" s="19" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E83" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F83" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G83" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H83" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J83" t="s">
         <v>105</v>
@@ -5576,25 +5554,25 @@
         <v>83</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D84" s="19" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E84" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F84" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G84" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H84" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J84" t="s">
         <v>118</v>
@@ -5606,25 +5584,25 @@
         <v>84</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D85" s="19" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E85" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F85" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G85" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H85" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J85" t="s">
         <v>105</v>
@@ -5636,25 +5614,25 @@
         <v>85</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D86" s="19" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E86" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F86" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G86" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H86" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J86" t="s">
         <v>105</v>
@@ -5666,25 +5644,25 @@
         <v>86</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D87" s="19" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E87" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F87" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G87" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H87" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J87" t="s">
         <v>118</v>
@@ -5696,25 +5674,25 @@
         <v>87</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D88" s="19" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E88" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F88" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G88" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H88" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J88" t="s">
         <v>105</v>
@@ -5726,25 +5704,25 @@
         <v>88</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D89" s="19" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E89" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F89" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G89" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H89" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J89" t="s">
         <v>105</v>
@@ -5756,25 +5734,25 @@
         <v>89</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D90" s="19" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E90" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F90" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G90" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H90" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J90" t="s">
         <v>118</v>
@@ -5786,25 +5764,25 @@
         <v>90</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D91" s="19" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E91" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F91" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G91" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H91" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J91" t="s">
         <v>105</v>
@@ -5816,25 +5794,25 @@
         <v>91</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D92" s="19" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E92" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F92" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G92" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H92" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J92" t="s">
         <v>105</v>
@@ -5846,25 +5824,25 @@
         <v>92</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D93" s="19" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E93" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F93" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G93" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H93" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J93" t="s">
         <v>118</v>
@@ -5876,25 +5854,25 @@
         <v>93</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D94" s="19" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E94" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F94" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G94" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H94" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J94" t="s">
         <v>105</v>
@@ -5906,25 +5884,25 @@
         <v>94</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D95" s="19" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E95" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F95" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G95" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H95" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J95" t="s">
         <v>118</v>
@@ -5936,25 +5914,25 @@
         <v>95</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D96" s="19" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E96" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F96" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G96" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H96" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J96" t="s">
         <v>105</v>
@@ -5966,25 +5944,25 @@
         <v>96</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D97" s="19" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E97" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F97" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G97" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H97" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J97" t="s">
         <v>118</v>
@@ -5996,25 +5974,25 @@
         <v>97</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D98" s="19" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E98" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F98" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G98" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H98" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J98" t="s">
         <v>105</v>
@@ -6026,25 +6004,25 @@
         <v>98</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D99" s="19" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E99" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F99" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G99" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H99" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J99" t="s">
         <v>118</v>
@@ -6056,28 +6034,28 @@
         <v>99</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D100" s="20" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E100" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F100" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G100" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H100" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J100" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="34">
@@ -6086,28 +6064,28 @@
         <v>100</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D101" s="20" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E101" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F101" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G101" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H101" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J101" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="34">
@@ -6116,28 +6094,28 @@
         <v>101</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D102" s="19" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E102" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F102" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G102" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H102" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J102" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="34">
@@ -6146,28 +6124,28 @@
         <v>102</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D103" s="19" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E103" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F103" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G103" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H103" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J103" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="34">
@@ -6176,28 +6154,28 @@
         <v>103</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D104" s="19" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E104" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F104" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G104" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H104" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J104" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="34">
@@ -6206,28 +6184,28 @@
         <v>104</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D105" s="19" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E105" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F105" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G105" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H105" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J105" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="34">
@@ -6236,28 +6214,28 @@
         <v>105</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D106" s="19" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E106" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F106" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G106" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H106" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J106" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="34">
@@ -6266,28 +6244,28 @@
         <v>106</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D107" s="19" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E107" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F107" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G107" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H107" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J107" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="34">
@@ -6296,25 +6274,25 @@
         <v>107</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D108" s="19" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E108" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F108" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G108" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H108" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J108" t="s">
         <v>118</v>
@@ -6326,28 +6304,28 @@
         <v>108</v>
       </c>
       <c r="B109" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="D109" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="E109" t="s">
+        <v>351</v>
+      </c>
+      <c r="F109" t="s">
         <v>352</v>
       </c>
-      <c r="C109" s="5" t="s">
+      <c r="G109" t="s">
+        <v>244</v>
+      </c>
+      <c r="H109" t="s">
+        <v>15</v>
+      </c>
+      <c r="J109" t="s">
         <v>353</v>
-      </c>
-      <c r="D109" s="21" t="s">
-        <v>354</v>
-      </c>
-      <c r="E109" t="s">
-        <v>355</v>
-      </c>
-      <c r="F109" t="s">
-        <v>356</v>
-      </c>
-      <c r="G109" t="s">
-        <v>248</v>
-      </c>
-      <c r="H109" t="s">
-        <v>15</v>
-      </c>
-      <c r="J109" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="34">
@@ -6356,22 +6334,22 @@
         <v>109</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D110" s="14" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E110" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F110" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G110" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H110" t="s">
         <v>15</v>
@@ -6386,22 +6364,22 @@
         <v>110</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D111" s="14" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E111" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F111" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G111" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H111" t="s">
         <v>15</v>
@@ -6416,22 +6394,22 @@
         <v>111</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D112" s="14" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E112" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F112" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G112" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H112" t="s">
         <v>15</v>
@@ -6446,22 +6424,22 @@
         <v>112</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D113" s="19" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E113" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F113" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G113" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H113" t="s">
         <v>15</v>
@@ -6476,22 +6454,22 @@
         <v>113</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D114" s="19" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E114" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F114" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G114" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H114" t="s">
         <v>15</v>
@@ -6506,22 +6484,22 @@
         <v>114</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D115" s="19" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E115" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F115" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G115" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H115" t="s">
         <v>15</v>
@@ -6536,22 +6514,22 @@
         <v>115</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D116" s="19" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E116" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F116" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G116" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H116" t="s">
         <v>15</v>
@@ -6566,22 +6544,22 @@
         <v>116</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D117" s="19" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E117" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F117" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G117" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H117" t="s">
         <v>15</v>
@@ -6596,22 +6574,22 @@
         <v>117</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D118" s="19" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E118" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F118" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G118" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H118" t="s">
         <v>15</v>
@@ -6626,22 +6604,22 @@
         <v>118</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D119" s="19" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E119" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F119" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G119" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H119" t="s">
         <v>15</v>
@@ -6656,22 +6634,22 @@
         <v>119</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D120" s="19" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E120" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F120" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G120" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H120" t="s">
         <v>15</v>
@@ -6686,22 +6664,22 @@
         <v>120</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D121" s="19" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E121" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F121" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G121" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H121" t="s">
         <v>15</v>
@@ -6716,22 +6694,22 @@
         <v>121</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D122" s="19" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E122" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F122" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G122" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H122" t="s">
         <v>15</v>
@@ -6746,22 +6724,22 @@
         <v>122</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D123" s="19" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E123" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F123" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G123" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H123" t="s">
         <v>15</v>
@@ -6776,22 +6754,22 @@
         <v>123</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D124" s="19" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E124" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F124" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G124" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H124" t="s">
         <v>15</v>
@@ -6806,22 +6784,22 @@
         <v>124</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D125" s="19" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E125" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F125" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G125" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H125" t="s">
         <v>15</v>
@@ -6836,22 +6814,22 @@
         <v>125</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D126" s="19" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E126" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F126" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G126" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H126" t="s">
         <v>15</v>
@@ -6866,22 +6844,22 @@
         <v>126</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D127" s="19" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E127" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F127" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G127" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H127" t="s">
         <v>15</v>
@@ -6896,22 +6874,22 @@
         <v>127</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="D128" s="19" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E128" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F128" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G128" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H128" t="s">
         <v>15</v>
@@ -6926,22 +6904,22 @@
         <v>128</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D129" s="19" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E129" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F129" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G129" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H129" t="s">
         <v>15</v>
@@ -6956,22 +6934,22 @@
         <v>129</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D130" s="19" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E130" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F130" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G130" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H130" t="s">
         <v>15</v>
@@ -6986,22 +6964,22 @@
         <v>130</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D131" s="19" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E131" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F131" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G131" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H131" t="s">
         <v>15</v>
@@ -7016,22 +6994,22 @@
         <v>131</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D132" s="19" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E132" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F132" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G132" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H132" t="s">
         <v>15</v>
@@ -7046,22 +7024,22 @@
         <v>132</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D133" s="19" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E133" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F133" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G133" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H133" t="s">
         <v>15</v>
@@ -7076,22 +7054,22 @@
         <v>133</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D134" s="19" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E134" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F134" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G134" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H134" t="s">
         <v>15</v>
@@ -7106,28 +7084,28 @@
         <v>134</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D135" s="20" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E135" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F135" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G135" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H135" t="s">
         <v>15</v>
       </c>
       <c r="J135" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="136" spans="1:10" ht="34">
@@ -7136,28 +7114,28 @@
         <v>135</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D136" s="20" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E136" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F136" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G136" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H136" t="s">
         <v>15</v>
       </c>
       <c r="J136" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="34">
@@ -7166,28 +7144,28 @@
         <v>136</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D137" s="19" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E137" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F137" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G137" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H137" t="s">
         <v>15</v>
       </c>
       <c r="J137" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="138" spans="1:10" ht="34">
@@ -7196,28 +7174,28 @@
         <v>137</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D138" s="19" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E138" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F138" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G138" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H138" t="s">
         <v>15</v>
       </c>
       <c r="J138" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="139" spans="1:10" ht="34">
@@ -7226,28 +7204,28 @@
         <v>138</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D139" s="19" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E139" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F139" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G139" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H139" t="s">
         <v>15</v>
       </c>
       <c r="J139" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="140" spans="1:10" ht="34">
@@ -7256,28 +7234,28 @@
         <v>139</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D140" s="19" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E140" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F140" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G140" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H140" t="s">
         <v>15</v>
       </c>
       <c r="J140" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="141" spans="1:10" ht="34">
@@ -7286,28 +7264,28 @@
         <v>140</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D141" s="19" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E141" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F141" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G141" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H141" t="s">
         <v>15</v>
       </c>
       <c r="J141" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="142" spans="1:10" ht="34">
@@ -7316,28 +7294,28 @@
         <v>141</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D142" s="19" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E142" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F142" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G142" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H142" t="s">
         <v>15</v>
       </c>
       <c r="J142" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="143" spans="1:10" ht="34">
@@ -7346,22 +7324,22 @@
         <v>142</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="D143" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="E143" t="s">
         <v>351</v>
       </c>
-      <c r="E143" t="s">
-        <v>355</v>
-      </c>
       <c r="F143" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G143" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H143" t="s">
         <v>15</v>
@@ -7376,22 +7354,22 @@
         <v>143</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="D144" s="11" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="E144" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F144" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G144" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H144" t="s">
         <v>15</v>
@@ -7406,22 +7384,22 @@
         <v>144</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="D145" s="11" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="E145" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F145" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G145" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H145" t="s">
         <v>15</v>
@@ -7436,22 +7414,22 @@
         <v>145</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="D146" s="11" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="E146" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F146" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G146" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H146" t="s">
         <v>15</v>
@@ -7466,22 +7444,22 @@
         <v>146</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="D147" s="22" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E147" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="F147" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="G147" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H147" t="s">
         <v>15</v>
@@ -7496,22 +7474,22 @@
         <v>147</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D148" s="22" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E148" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="F148" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="G148" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H148" t="s">
         <v>15</v>
@@ -7526,22 +7504,22 @@
         <v>148</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D149" s="22" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E149" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="F149" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="G149" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H149" t="s">
         <v>15</v>
@@ -7557,22 +7535,22 @@
         <v>149</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="D150" s="22" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E150" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="F150" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="G150" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H150" t="s">
         <v>15</v>
@@ -7587,22 +7565,22 @@
         <v>150</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="D151" s="22" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E151" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="F151" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="G151" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H151" t="s">
         <v>15</v>
@@ -7617,22 +7595,22 @@
         <v>151</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D152" s="22" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="E152" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="F152" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="G152" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H152" t="s">
         <v>15</v>
@@ -7647,22 +7625,22 @@
         <v>152</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="D153" s="22" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="E153" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="F153" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="G153" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H153" t="s">
         <v>15</v>
@@ -7677,22 +7655,22 @@
         <v>153</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D154" s="22" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="E154" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="F154" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="G154" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H154" t="s">
         <v>15</v>
@@ -7707,22 +7685,22 @@
         <v>154</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D155" s="22" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="E155" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="F155" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="G155" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H155" t="s">
         <v>15</v>
@@ -7737,22 +7715,22 @@
         <v>155</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="D156" s="22" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="E156" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="F156" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="G156" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H156" t="s">
         <v>15</v>
@@ -7767,22 +7745,22 @@
         <v>156</v>
       </c>
       <c r="B157" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="D157" s="23" t="s">
+        <v>458</v>
+      </c>
+      <c r="E157" t="s">
+        <v>459</v>
+      </c>
+      <c r="F157" t="s">
         <v>460</v>
       </c>
-      <c r="C157" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="D157" s="23" t="s">
-        <v>462</v>
-      </c>
-      <c r="E157" t="s">
-        <v>463</v>
-      </c>
-      <c r="F157" t="s">
-        <v>464</v>
-      </c>
       <c r="G157" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H157" t="s">
         <v>15</v>
@@ -7797,22 +7775,22 @@
         <v>157</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="D158" s="22" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="E158" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F158" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G158" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H158" t="s">
         <v>15</v>
@@ -7827,22 +7805,22 @@
         <v>158</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D159" s="22" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="E159" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F159" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G159" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H159" t="s">
         <v>15</v>
@@ -7857,22 +7835,22 @@
         <v>159</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D160" s="22" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="E160" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F160" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G160" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H160" t="s">
         <v>15</v>
@@ -7887,22 +7865,22 @@
         <v>160</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="D161" s="22" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="E161" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F161" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G161" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H161" t="s">
         <v>15</v>
@@ -7917,22 +7895,22 @@
         <v>161</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="D162" s="22" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="E162" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F162" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G162" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H162" t="s">
         <v>15</v>
@@ -7947,22 +7925,22 @@
         <v>162</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="D163" s="22" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="E163" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F163" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G163" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H163" t="s">
         <v>15</v>
@@ -7977,22 +7955,22 @@
         <v>163</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="D164" s="24" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="E164" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F164" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G164" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H164" t="s">
         <v>15</v>
@@ -8007,22 +7985,22 @@
         <v>164</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D165" s="24" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="E165" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F165" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G165" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H165" t="s">
         <v>15</v>
@@ -8037,22 +8015,22 @@
         <v>165</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D166" s="24" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="E166" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F166" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G166" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H166" t="s">
         <v>15</v>
@@ -8067,28 +8045,28 @@
         <v>166</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="D167" s="19" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E167" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F167" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G167" t="s">
         <v>14</v>
       </c>
       <c r="H167" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J167" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="168" spans="1:10" ht="34">
@@ -8097,25 +8075,25 @@
         <v>167</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="D168" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F168" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G168" t="s">
         <v>14</v>
       </c>
       <c r="H168" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J168" t="s">
         <v>94</v>
@@ -8127,25 +8105,25 @@
         <v>168</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D169" s="14" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E169" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F169" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G169" t="s">
         <v>14</v>
       </c>
       <c r="H169" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J169" t="s">
         <v>105</v>
@@ -8157,25 +8135,25 @@
         <v>169</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="D170" s="14" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E170" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F170" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G170" t="s">
         <v>14</v>
       </c>
       <c r="H170" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J170" t="s">
         <v>105</v>
@@ -8187,25 +8165,25 @@
         <v>170</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D171" s="14" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E171" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F171" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G171" t="s">
         <v>14</v>
       </c>
       <c r="H171" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J171" t="s">
         <v>105</v>
@@ -8217,25 +8195,25 @@
         <v>171</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="D172" s="19" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E172" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F172" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G172" t="s">
         <v>14</v>
       </c>
       <c r="H172" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J172" t="s">
         <v>105</v>
@@ -8247,25 +8225,25 @@
         <v>172</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="D173" s="19" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E173" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F173" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G173" t="s">
         <v>14</v>
       </c>
       <c r="H173" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J173" t="s">
         <v>105</v>
@@ -8277,25 +8255,25 @@
         <v>173</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D174" s="19" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E174" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F174" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G174" t="s">
         <v>14</v>
       </c>
       <c r="H174" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J174" t="s">
         <v>118</v>
@@ -8307,25 +8285,25 @@
         <v>174</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D175" s="19" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E175" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F175" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G175" t="s">
         <v>14</v>
       </c>
       <c r="H175" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J175" t="s">
         <v>105</v>
@@ -8337,25 +8315,25 @@
         <v>175</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="D176" s="19" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E176" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F176" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G176" t="s">
         <v>14</v>
       </c>
       <c r="H176" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J176" t="s">
         <v>105</v>
@@ -8367,25 +8345,25 @@
         <v>176</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="D177" s="19" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E177" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F177" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G177" t="s">
         <v>14</v>
       </c>
       <c r="H177" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J177" t="s">
         <v>118</v>
@@ -8397,25 +8375,25 @@
         <v>177</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D178" s="19" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E178" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F178" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G178" t="s">
         <v>14</v>
       </c>
       <c r="H178" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J178" t="s">
         <v>105</v>
@@ -8427,25 +8405,25 @@
         <v>178</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="D179" s="19" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E179" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F179" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G179" t="s">
         <v>14</v>
       </c>
       <c r="H179" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J179" t="s">
         <v>105</v>
@@ -8457,25 +8435,25 @@
         <v>179</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D180" s="19" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E180" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F180" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G180" t="s">
         <v>14</v>
       </c>
       <c r="H180" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J180" t="s">
         <v>105</v>
@@ -8487,25 +8465,25 @@
         <v>180</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="D181" s="19" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E181" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F181" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G181" t="s">
         <v>14</v>
       </c>
       <c r="H181" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J181" t="s">
         <v>118</v>
@@ -8517,25 +8495,25 @@
         <v>181</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="D182" s="19" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E182" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F182" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G182" t="s">
         <v>14</v>
       </c>
       <c r="H182" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J182" t="s">
         <v>105</v>
@@ -8547,25 +8525,25 @@
         <v>182</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="D183" s="19" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E183" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F183" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G183" t="s">
         <v>14</v>
       </c>
       <c r="H183" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J183" t="s">
         <v>105</v>
@@ -8577,25 +8555,25 @@
         <v>183</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="D184" s="19" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E184" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F184" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G184" t="s">
         <v>14</v>
       </c>
       <c r="H184" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J184" t="s">
         <v>118</v>
@@ -8607,25 +8585,25 @@
         <v>184</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="D185" s="19" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E185" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F185" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G185" t="s">
         <v>14</v>
       </c>
       <c r="H185" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J185" t="s">
         <v>105</v>
@@ -8637,25 +8615,25 @@
         <v>185</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="D186" s="19" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E186" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F186" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G186" t="s">
         <v>14</v>
       </c>
       <c r="H186" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J186" t="s">
         <v>105</v>
@@ -8667,25 +8645,25 @@
         <v>186</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="D187" s="19" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E187" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F187" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G187" t="s">
         <v>14</v>
       </c>
       <c r="H187" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J187" t="s">
         <v>118</v>
@@ -8697,25 +8675,25 @@
         <v>187</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="D188" s="19" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E188" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F188" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G188" t="s">
         <v>14</v>
       </c>
       <c r="H188" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J188" t="s">
         <v>105</v>
@@ -8727,25 +8705,25 @@
         <v>188</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="D189" s="19" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E189" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F189" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G189" t="s">
         <v>14</v>
       </c>
       <c r="H189" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J189" t="s">
         <v>118</v>
@@ -8757,25 +8735,25 @@
         <v>189</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D190" s="19" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E190" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F190" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G190" t="s">
         <v>14</v>
       </c>
       <c r="H190" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J190" t="s">
         <v>105</v>
@@ -8787,25 +8765,25 @@
         <v>190</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="D191" s="19" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E191" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F191" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G191" t="s">
         <v>14</v>
       </c>
       <c r="H191" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J191" t="s">
         <v>118</v>
@@ -8817,25 +8795,25 @@
         <v>191</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="D192" s="19" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E192" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F192" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G192" t="s">
         <v>14</v>
       </c>
       <c r="H192" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J192" t="s">
         <v>105</v>
@@ -8847,25 +8825,25 @@
         <v>192</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="D193" s="19" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E193" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F193" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G193" t="s">
         <v>14</v>
       </c>
       <c r="H193" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J193" t="s">
         <v>118</v>
@@ -8877,28 +8855,28 @@
         <v>193</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="D194" s="20" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E194" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F194" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G194" t="s">
         <v>14</v>
       </c>
       <c r="H194" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J194" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="195" spans="1:10" ht="34">
@@ -8907,58 +8885,58 @@
         <v>194</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="D195" s="20" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E195" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F195" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G195" t="s">
         <v>14</v>
       </c>
       <c r="H195" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J195" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="196" spans="1:10" ht="34">
       <c r="A196">
-        <f t="shared" ref="A196:A244" si="3">A195+1</f>
+        <f t="shared" ref="A196:A243" si="3">A195+1</f>
         <v>195</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="D196" s="19" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E196" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F196" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G196" t="s">
         <v>14</v>
       </c>
       <c r="H196" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J196" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="197" spans="1:10" ht="34">
@@ -8967,28 +8945,28 @@
         <v>196</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="D197" s="19" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E197" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F197" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G197" t="s">
         <v>14</v>
       </c>
       <c r="H197" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J197" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="198" spans="1:10" ht="34">
@@ -8997,28 +8975,28 @@
         <v>197</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="D198" s="19" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E198" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F198" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G198" t="s">
         <v>14</v>
       </c>
       <c r="H198" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J198" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="199" spans="1:10" ht="34">
@@ -9027,28 +9005,28 @@
         <v>198</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="D199" s="19" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E199" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F199" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G199" t="s">
         <v>14</v>
       </c>
       <c r="H199" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J199" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="200" spans="1:10" ht="34">
@@ -9057,28 +9035,28 @@
         <v>199</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="D200" s="19" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E200" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F200" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G200" t="s">
         <v>14</v>
       </c>
       <c r="H200" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J200" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="201" spans="1:10" ht="34">
@@ -9087,28 +9065,28 @@
         <v>200</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="D201" s="19" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E201" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F201" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G201" t="s">
         <v>14</v>
       </c>
       <c r="H201" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J201" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="202" spans="1:10" ht="34">
@@ -9117,25 +9095,25 @@
         <v>201</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="D202" s="19" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E202" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F202" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G202" t="s">
         <v>14</v>
       </c>
       <c r="H202" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J202" t="s">
         <v>118</v>
@@ -9147,19 +9125,19 @@
         <v>202</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="D203" s="21" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="E203" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F203" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G203" t="s">
         <v>14</v>
@@ -9177,19 +9155,19 @@
         <v>203</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="D204" s="14" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E204" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F204" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G204" t="s">
         <v>14</v>
@@ -9207,19 +9185,19 @@
         <v>204</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="D205" s="14" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E205" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F205" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G205" t="s">
         <v>14</v>
@@ -9237,19 +9215,19 @@
         <v>205</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="D206" s="14" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E206" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F206" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G206" t="s">
         <v>14</v>
@@ -9267,19 +9245,19 @@
         <v>206</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="D207" s="19" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E207" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F207" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G207" t="s">
         <v>14</v>
@@ -9297,19 +9275,19 @@
         <v>207</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="D208" s="19" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E208" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F208" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G208" t="s">
         <v>14</v>
@@ -9327,19 +9305,19 @@
         <v>208</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D209" s="19" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E209" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F209" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G209" t="s">
         <v>14</v>
@@ -9357,19 +9335,19 @@
         <v>209</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="D210" s="19" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E210" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F210" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G210" t="s">
         <v>14</v>
@@ -9387,19 +9365,19 @@
         <v>210</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D211" s="19" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E211" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F211" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G211" t="s">
         <v>14</v>
@@ -9417,19 +9395,19 @@
         <v>211</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="D212" s="19" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E212" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F212" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G212" t="s">
         <v>14</v>
@@ -9447,19 +9425,19 @@
         <v>212</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="D213" s="19" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E213" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F213" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G213" t="s">
         <v>14</v>
@@ -9477,19 +9455,19 @@
         <v>213</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="D214" s="19" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E214" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F214" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G214" t="s">
         <v>14</v>
@@ -9507,19 +9485,19 @@
         <v>214</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="D215" s="19" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E215" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F215" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G215" t="s">
         <v>14</v>
@@ -9537,19 +9515,19 @@
         <v>215</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="D216" s="19" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E216" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F216" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G216" t="s">
         <v>14</v>
@@ -9567,19 +9545,19 @@
         <v>216</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="D217" s="19" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E217" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F217" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G217" t="s">
         <v>14</v>
@@ -9597,19 +9575,19 @@
         <v>217</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="D218" s="19" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E218" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F218" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G218" t="s">
         <v>14</v>
@@ -9627,19 +9605,19 @@
         <v>218</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="D219" s="19" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E219" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F219" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G219" t="s">
         <v>14</v>
@@ -9657,19 +9635,19 @@
         <v>219</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="D220" s="19" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E220" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F220" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G220" t="s">
         <v>14</v>
@@ -9687,19 +9665,19 @@
         <v>220</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="D221" s="19" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E221" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F221" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G221" t="s">
         <v>14</v>
@@ -9717,19 +9695,19 @@
         <v>221</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="D222" s="19" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E222" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F222" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G222" t="s">
         <v>14</v>
@@ -9747,19 +9725,19 @@
         <v>222</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D223" s="19" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E223" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F223" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G223" t="s">
         <v>14</v>
@@ -9777,19 +9755,19 @@
         <v>223</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="D224" s="19" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E224" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F224" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G224" t="s">
         <v>14</v>
@@ -9807,19 +9785,19 @@
         <v>224</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="D225" s="19" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E225" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F225" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G225" t="s">
         <v>14</v>
@@ -9837,19 +9815,19 @@
         <v>225</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="D226" s="19" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E226" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F226" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G226" t="s">
         <v>14</v>
@@ -9867,19 +9845,19 @@
         <v>226</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="D227" s="19" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E227" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F227" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G227" t="s">
         <v>14</v>
@@ -9897,19 +9875,19 @@
         <v>227</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="D228" s="19" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E228" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F228" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G228" t="s">
         <v>14</v>
@@ -9927,19 +9905,19 @@
         <v>228</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="D229" s="20" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E229" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F229" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G229" t="s">
         <v>14</v>
@@ -9948,7 +9926,7 @@
         <v>15</v>
       </c>
       <c r="J229" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="230" spans="1:10" ht="34">
@@ -9957,19 +9935,19 @@
         <v>229</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="D230" s="20" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E230" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F230" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G230" t="s">
         <v>14</v>
@@ -9978,7 +9956,7 @@
         <v>15</v>
       </c>
       <c r="J230" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="231" spans="1:10" ht="34">
@@ -9987,19 +9965,19 @@
         <v>230</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="D231" s="19" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E231" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F231" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G231" t="s">
         <v>14</v>
@@ -10008,7 +9986,7 @@
         <v>15</v>
       </c>
       <c r="J231" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="232" spans="1:10" ht="34">
@@ -10017,19 +9995,19 @@
         <v>231</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="D232" s="19" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E232" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F232" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G232" t="s">
         <v>14</v>
@@ -10038,7 +10016,7 @@
         <v>15</v>
       </c>
       <c r="J232" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="233" spans="1:10" ht="34">
@@ -10047,19 +10025,19 @@
         <v>232</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="D233" s="19" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E233" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F233" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G233" t="s">
         <v>14</v>
@@ -10068,7 +10046,7 @@
         <v>15</v>
       </c>
       <c r="J233" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="234" spans="1:10" ht="34">
@@ -10077,19 +10055,19 @@
         <v>233</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D234" s="19" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E234" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F234" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G234" t="s">
         <v>14</v>
@@ -10098,7 +10076,7 @@
         <v>15</v>
       </c>
       <c r="J234" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="235" spans="1:10" ht="34">
@@ -10107,19 +10085,19 @@
         <v>234</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="D235" s="19" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E235" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F235" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G235" t="s">
         <v>14</v>
@@ -10128,7 +10106,7 @@
         <v>15</v>
       </c>
       <c r="J235" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="236" spans="1:10" ht="34">
@@ -10137,19 +10115,19 @@
         <v>235</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="C236" s="5" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="D236" s="19" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E236" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F236" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G236" t="s">
         <v>14</v>
@@ -10158,7 +10136,7 @@
         <v>15</v>
       </c>
       <c r="J236" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="237" spans="1:10" ht="34">
@@ -10167,19 +10145,19 @@
         <v>236</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C237" s="5" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="D237" s="19" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E237" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F237" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G237" t="s">
         <v>14</v>
@@ -10197,19 +10175,19 @@
         <v>237</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="D238" s="11" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="E238" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F238" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G238" t="s">
         <v>14</v>
@@ -10227,19 +10205,19 @@
         <v>238</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="D239" s="11" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="E239" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F239" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G239" t="s">
         <v>14</v>
@@ -10257,19 +10235,19 @@
         <v>239</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="D240" s="11" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="E240" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F240" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G240" t="s">
         <v>14</v>
@@ -10287,19 +10265,19 @@
         <v>240</v>
       </c>
       <c r="B241" s="26" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="C241" s="26" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="D241" s="26" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="E241" s="25" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F241" s="25" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G241" s="25" t="s">
         <v>14</v>
@@ -10317,19 +10295,19 @@
         <v>241</v>
       </c>
       <c r="B242" s="26" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="C242" s="26" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="D242" s="26" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="E242" s="25" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F242" s="25" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G242" s="25" t="s">
         <v>14</v>
@@ -10347,19 +10325,19 @@
         <v>242</v>
       </c>
       <c r="B243" s="26" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C243" s="26" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="D243" s="26" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="E243" s="25" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F243" s="25" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G243" s="25" t="s">
         <v>14</v>
@@ -10371,40 +10349,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="244" spans="1:10" ht="43" customHeight="1">
-      <c r="A244">
-        <f t="shared" si="3"/>
-        <v>243</v>
-      </c>
-      <c r="B244" s="26" t="s">
-        <v>665</v>
-      </c>
-      <c r="C244" s="27" t="s">
-        <v>666</v>
-      </c>
-      <c r="D244" s="27" t="s">
-        <v>664</v>
-      </c>
-      <c r="E244" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="F244" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="G244" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="H244" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="I244" s="28"/>
-      <c r="J244" s="28" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="245" spans="1:10">
-      <c r="D245" s="11"/>
-      <c r="E245" s="5"/>
+    <row r="244" spans="1:10">
+      <c r="D244" s="11"/>
+      <c r="E244" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/testdata/metadata.xlsx
+++ b/testdata/metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaomeizhang/git/examples/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16CDC5AA-14BA-3945-AA22-945C41C9B075}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5CFCA91-BBD5-8F49-9659-D4C1F5CA8C52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16660" xr2:uid="{2EB031C0-9E16-3047-9870-4FCC9694F622}"/>
   </bookViews>
@@ -38,7 +38,7 @@
     <author>林佳琦</author>
   </authors>
   <commentList>
-    <comment ref="D69" authorId="0" shapeId="0" xr:uid="{6846C977-354B-CA4C-AA66-133C28043AC2}">
+    <comment ref="D70" authorId="0" shapeId="0" xr:uid="{6846C977-354B-CA4C-AA66-133C28043AC2}">
       <text>
         <r>
           <rPr>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1946" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1954" uniqueCount="671">
   <si>
     <t>id</t>
   </si>
@@ -2401,6 +2401,14 @@
   </si>
   <si>
     <t>v_teambuilding_cost</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>晋升期</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>v_regular_date</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -3011,10 +3019,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA74C303-B588-0C4E-8B44-6A6932D24602}">
-  <dimension ref="A1:AH244"/>
+  <dimension ref="A1:AH245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
-      <selection activeCell="A244" sqref="A244:XFD244"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3150,7 +3158,7 @@
     </row>
     <row r="4" spans="1:34" ht="34">
       <c r="A4">
-        <f t="shared" ref="A4:A67" si="0">A3+1</f>
+        <f t="shared" ref="A4:A68" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -3394,13 +3402,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>48</v>
+        <v>670</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>49</v>
+        <v>669</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
@@ -3424,13 +3432,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>660</v>
+        <v>49</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
@@ -3454,13 +3462,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>55</v>
+        <v>660</v>
       </c>
       <c r="E14" t="s">
         <v>12</v>
@@ -3475,7 +3483,7 @@
         <v>15</v>
       </c>
       <c r="J14" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:34" ht="34">
@@ -3484,13 +3492,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E15" t="s">
         <v>12</v>
@@ -3514,13 +3522,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E16" t="s">
         <v>12</v>
@@ -3544,13 +3552,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E17" t="s">
         <v>12</v>
@@ -3574,13 +3582,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E18" t="s">
         <v>12</v>
@@ -3604,13 +3612,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E19" t="s">
         <v>12</v>
@@ -3634,13 +3642,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E20" t="s">
         <v>12</v>
@@ -3664,13 +3672,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>77</v>
+        <v>73</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="E21" t="s">
         <v>12</v>
@@ -3694,13 +3702,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E22" t="s">
         <v>12</v>
@@ -3724,13 +3732,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="E23" t="s">
         <v>12</v>
@@ -3754,13 +3762,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="E24" t="s">
         <v>12</v>
@@ -3784,13 +3792,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E25" t="s">
         <v>12</v>
@@ -3814,19 +3822,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
         <v>14</v>
@@ -3835,7 +3843,7 @@
         <v>15</v>
       </c>
       <c r="J26" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="34">
@@ -3844,13 +3852,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>92</v>
@@ -3865,7 +3873,7 @@
         <v>15</v>
       </c>
       <c r="J27" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="34">
@@ -3874,19 +3882,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" t="s">
-        <v>100</v>
+        <v>96</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="F28" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="G28" t="s">
         <v>14</v>
@@ -3895,7 +3903,7 @@
         <v>15</v>
       </c>
       <c r="J28" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="34">
@@ -3904,13 +3912,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>104</v>
+        <v>99</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="E29" t="s">
         <v>100</v>
@@ -3925,7 +3933,7 @@
         <v>15</v>
       </c>
       <c r="J29" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="34">
@@ -3934,13 +3942,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>108</v>
+        <v>103</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>104</v>
       </c>
       <c r="E30" t="s">
         <v>100</v>
@@ -3964,13 +3972,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E31" t="s">
         <v>100</v>
@@ -3994,13 +4002,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E32" t="s">
         <v>100</v>
@@ -4024,13 +4032,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>117</v>
+        <v>113</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>114</v>
       </c>
       <c r="E33" t="s">
         <v>100</v>
@@ -4045,7 +4053,7 @@
         <v>15</v>
       </c>
       <c r="J33" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="34">
@@ -4054,13 +4062,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>121</v>
+        <v>116</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>117</v>
       </c>
       <c r="E34" t="s">
         <v>100</v>
@@ -4075,7 +4083,7 @@
         <v>15</v>
       </c>
       <c r="J34" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="34">
@@ -4084,13 +4092,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E35" t="s">
         <v>100</v>
@@ -4105,7 +4113,7 @@
         <v>15</v>
       </c>
       <c r="J35" t="s">
-        <v>56</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="34">
@@ -4114,13 +4122,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E36" t="s">
         <v>100</v>
@@ -4144,13 +4152,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E37" t="s">
         <v>100</v>
@@ -4174,13 +4182,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E38" t="s">
         <v>100</v>
@@ -4195,7 +4203,7 @@
         <v>15</v>
       </c>
       <c r="J38" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="34">
@@ -4204,13 +4212,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E39" t="s">
         <v>100</v>
@@ -4234,13 +4242,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D40" s="16" t="s">
-        <v>140</v>
+        <v>136</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>137</v>
       </c>
       <c r="E40" t="s">
         <v>100</v>
@@ -4264,13 +4272,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E41" t="s">
         <v>100</v>
@@ -4294,13 +4302,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E42" t="s">
         <v>100</v>
@@ -4324,13 +4332,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E43" t="s">
         <v>100</v>
@@ -4354,13 +4362,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>152</v>
+        <v>148</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>149</v>
       </c>
       <c r="E44" t="s">
         <v>100</v>
@@ -4384,13 +4392,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>641</v>
-      </c>
-      <c r="D45" s="16" t="s">
-        <v>154</v>
+        <v>151</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>152</v>
       </c>
       <c r="E45" t="s">
         <v>100</v>
@@ -4414,13 +4422,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>156</v>
+        <v>641</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E46" t="s">
         <v>100</v>
@@ -4444,13 +4452,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E47" t="s">
         <v>100</v>
@@ -4474,13 +4482,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E48" t="s">
         <v>100</v>
@@ -4504,13 +4512,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>668</v>
+        <v>162</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E49" t="s">
         <v>100</v>
@@ -4525,28 +4533,28 @@
         <v>15</v>
       </c>
       <c r="J49" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="18" customHeight="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="34">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>638</v>
+        <v>668</v>
       </c>
       <c r="D50" s="16" t="s">
-        <v>11</v>
+        <v>165</v>
       </c>
       <c r="E50" t="s">
-        <v>167</v>
+        <v>100</v>
       </c>
       <c r="F50" t="s">
-        <v>168</v>
+        <v>101</v>
       </c>
       <c r="G50" t="s">
         <v>14</v>
@@ -4555,22 +4563,22 @@
         <v>15</v>
       </c>
       <c r="J50" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="34">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="18" customHeight="1">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="D51" s="18" t="s">
-        <v>171</v>
+        <v>638</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="E51" t="s">
         <v>167</v>
@@ -4585,7 +4593,7 @@
         <v>15</v>
       </c>
       <c r="J51" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="34">
@@ -4594,13 +4602,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E52" t="s">
         <v>167</v>
@@ -4624,13 +4632,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E53" t="s">
         <v>167</v>
@@ -4654,28 +4662,28 @@
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>637</v>
+        <v>176</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E54" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="F54" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="G54" t="s">
         <v>14</v>
       </c>
       <c r="H54" t="s">
-        <v>182</v>
+        <v>15</v>
       </c>
       <c r="J54" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="34">
@@ -4684,13 +4692,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>184</v>
+        <v>637</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E55" t="s">
         <v>180</v>
@@ -4705,7 +4713,7 @@
         <v>182</v>
       </c>
       <c r="J55" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="34">
@@ -4714,13 +4722,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E56" t="s">
         <v>180</v>
@@ -4744,13 +4752,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E57" t="s">
         <v>180</v>
@@ -4762,7 +4770,7 @@
         <v>14</v>
       </c>
       <c r="H57" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="J57" t="s">
         <v>56</v>
@@ -4774,13 +4782,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E58" t="s">
         <v>180</v>
@@ -4792,7 +4800,7 @@
         <v>14</v>
       </c>
       <c r="H58" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="J58" t="s">
         <v>56</v>
@@ -4804,13 +4812,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D59" s="18" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E59" t="s">
         <v>180</v>
@@ -4834,13 +4842,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>665</v>
+        <v>197</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E60" t="s">
         <v>180</v>
@@ -4864,13 +4872,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>202</v>
+        <v>665</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E61" t="s">
         <v>180</v>
@@ -4894,13 +4902,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>642</v>
+        <v>202</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E62" t="s">
         <v>180</v>
@@ -4924,13 +4932,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>207</v>
+        <v>642</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -4954,13 +4962,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E64" t="s">
         <v>180</v>
@@ -4972,7 +4980,7 @@
         <v>14</v>
       </c>
       <c r="H64" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="J64" t="s">
         <v>56</v>
@@ -4984,13 +4992,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E65" t="s">
         <v>180</v>
@@ -5002,7 +5010,7 @@
         <v>14</v>
       </c>
       <c r="H65" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="J65" t="s">
         <v>56</v>
@@ -5014,13 +5022,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E66" t="s">
         <v>180</v>
@@ -5044,13 +5052,13 @@
         <v>66</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>667</v>
+        <v>216</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E67" t="s">
         <v>180</v>
@@ -5070,17 +5078,17 @@
     </row>
     <row r="68" spans="1:10" ht="34">
       <c r="A68">
-        <f t="shared" ref="A68:A131" si="1">A67+1</f>
+        <f t="shared" si="0"/>
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E68" t="s">
         <v>180</v>
@@ -5100,17 +5108,17 @@
     </row>
     <row r="69" spans="1:10" ht="34">
       <c r="A69">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A69:A132" si="1">A68+1</f>
         <v>68</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>223</v>
+        <v>666</v>
       </c>
       <c r="D69" s="18" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E69" t="s">
         <v>180</v>
@@ -5134,13 +5142,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D70" s="18" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E70" t="s">
         <v>180</v>
@@ -5164,28 +5172,28 @@
         <v>70</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>639</v>
-      </c>
-      <c r="D71" s="11" t="s">
-        <v>229</v>
+        <v>226</v>
+      </c>
+      <c r="D71" s="18" t="s">
+        <v>227</v>
       </c>
       <c r="E71" t="s">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="F71" t="s">
-        <v>231</v>
+        <v>181</v>
       </c>
       <c r="G71" t="s">
         <v>14</v>
       </c>
       <c r="H71" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="J71" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="34">
@@ -5194,13 +5202,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="D72" s="10" t="s">
-        <v>234</v>
+        <v>639</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>229</v>
       </c>
       <c r="E72" t="s">
         <v>230</v>
@@ -5212,10 +5220,10 @@
         <v>14</v>
       </c>
       <c r="H72" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="J72" t="s">
-        <v>235</v>
+        <v>94</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="34">
@@ -5224,13 +5232,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E73" t="s">
         <v>230</v>
@@ -5245,7 +5253,7 @@
         <v>182</v>
       </c>
       <c r="J73" t="s">
-        <v>105</v>
+        <v>235</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="34">
@@ -5254,28 +5262,28 @@
         <v>73</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="D74" s="19" t="s">
-        <v>241</v>
+        <v>237</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>238</v>
       </c>
       <c r="E74" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="F74" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="G74" t="s">
-        <v>244</v>
+        <v>14</v>
       </c>
       <c r="H74" t="s">
         <v>182</v>
       </c>
       <c r="J74" t="s">
-        <v>235</v>
+        <v>105</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="34">
@@ -5284,13 +5292,13 @@
         <v>74</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="D75" s="14" t="s">
-        <v>247</v>
+        <v>240</v>
+      </c>
+      <c r="D75" s="19" t="s">
+        <v>241</v>
       </c>
       <c r="E75" t="s">
         <v>242</v>
@@ -5305,7 +5313,7 @@
         <v>182</v>
       </c>
       <c r="J75" t="s">
-        <v>105</v>
+        <v>235</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="34">
@@ -5314,13 +5322,13 @@
         <v>75</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E76" t="s">
         <v>242</v>
@@ -5344,13 +5352,13 @@
         <v>76</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E77" t="s">
         <v>242</v>
@@ -5374,13 +5382,13 @@
         <v>77</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="D78" s="19" t="s">
-        <v>256</v>
+        <v>252</v>
+      </c>
+      <c r="D78" s="14" t="s">
+        <v>253</v>
       </c>
       <c r="E78" t="s">
         <v>242</v>
@@ -5404,13 +5412,13 @@
         <v>78</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D79" s="19" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E79" t="s">
         <v>242</v>
@@ -5434,13 +5442,13 @@
         <v>79</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D80" s="19" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E80" t="s">
         <v>242</v>
@@ -5455,7 +5463,7 @@
         <v>182</v>
       </c>
       <c r="J80" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="34">
@@ -5464,13 +5472,13 @@
         <v>80</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D81" s="19" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E81" t="s">
         <v>242</v>
@@ -5485,7 +5493,7 @@
         <v>182</v>
       </c>
       <c r="J81" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="34">
@@ -5494,13 +5502,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D82" s="19" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E82" t="s">
         <v>242</v>
@@ -5524,13 +5532,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D83" s="19" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E83" t="s">
         <v>242</v>
@@ -5554,13 +5562,13 @@
         <v>83</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D84" s="19" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E84" t="s">
         <v>242</v>
@@ -5575,7 +5583,7 @@
         <v>182</v>
       </c>
       <c r="J84" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="34">
@@ -5584,13 +5592,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D85" s="19" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E85" t="s">
         <v>242</v>
@@ -5605,7 +5613,7 @@
         <v>182</v>
       </c>
       <c r="J85" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="34">
@@ -5614,13 +5622,13 @@
         <v>85</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D86" s="19" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E86" t="s">
         <v>242</v>
@@ -5644,13 +5652,13 @@
         <v>86</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D87" s="19" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E87" t="s">
         <v>242</v>
@@ -5665,7 +5673,7 @@
         <v>182</v>
       </c>
       <c r="J87" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="34">
@@ -5674,13 +5682,13 @@
         <v>87</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D88" s="19" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E88" t="s">
         <v>242</v>
@@ -5695,7 +5703,7 @@
         <v>182</v>
       </c>
       <c r="J88" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="34">
@@ -5704,13 +5712,13 @@
         <v>88</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D89" s="19" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E89" t="s">
         <v>242</v>
@@ -5734,13 +5742,13 @@
         <v>89</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D90" s="19" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E90" t="s">
         <v>242</v>
@@ -5755,7 +5763,7 @@
         <v>182</v>
       </c>
       <c r="J90" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="34">
@@ -5764,13 +5772,13 @@
         <v>90</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D91" s="19" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E91" t="s">
         <v>242</v>
@@ -5785,7 +5793,7 @@
         <v>182</v>
       </c>
       <c r="J91" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="34">
@@ -5794,13 +5802,13 @@
         <v>91</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D92" s="19" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E92" t="s">
         <v>242</v>
@@ -5824,13 +5832,13 @@
         <v>92</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D93" s="19" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E93" t="s">
         <v>242</v>
@@ -5845,7 +5853,7 @@
         <v>182</v>
       </c>
       <c r="J93" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="34">
@@ -5854,13 +5862,13 @@
         <v>93</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D94" s="19" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E94" t="s">
         <v>242</v>
@@ -5875,7 +5883,7 @@
         <v>182</v>
       </c>
       <c r="J94" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="34">
@@ -5884,13 +5892,13 @@
         <v>94</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D95" s="19" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E95" t="s">
         <v>242</v>
@@ -5905,7 +5913,7 @@
         <v>182</v>
       </c>
       <c r="J95" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="34">
@@ -5914,13 +5922,13 @@
         <v>95</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D96" s="19" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E96" t="s">
         <v>242</v>
@@ -5935,7 +5943,7 @@
         <v>182</v>
       </c>
       <c r="J96" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="34">
@@ -5944,13 +5952,13 @@
         <v>96</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D97" s="19" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E97" t="s">
         <v>242</v>
@@ -5965,7 +5973,7 @@
         <v>182</v>
       </c>
       <c r="J97" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="34">
@@ -5974,13 +5982,13 @@
         <v>97</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D98" s="19" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E98" t="s">
         <v>242</v>
@@ -5995,22 +6003,22 @@
         <v>182</v>
       </c>
       <c r="J98" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" ht="17" customHeight="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="34">
       <c r="A99">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D99" s="19" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E99" t="s">
         <v>242</v>
@@ -6025,22 +6033,22 @@
         <v>182</v>
       </c>
       <c r="J99" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" ht="34">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="17" customHeight="1">
       <c r="A100">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="D100" s="20" t="s">
-        <v>322</v>
+        <v>318</v>
+      </c>
+      <c r="D100" s="19" t="s">
+        <v>319</v>
       </c>
       <c r="E100" t="s">
         <v>242</v>
@@ -6055,7 +6063,7 @@
         <v>182</v>
       </c>
       <c r="J100" t="s">
-        <v>323</v>
+        <v>118</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="34">
@@ -6064,13 +6072,13 @@
         <v>100</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D101" s="20" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E101" t="s">
         <v>242</v>
@@ -6094,13 +6102,13 @@
         <v>101</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="D102" s="19" t="s">
-        <v>329</v>
+        <v>325</v>
+      </c>
+      <c r="D102" s="20" t="s">
+        <v>326</v>
       </c>
       <c r="E102" t="s">
         <v>242</v>
@@ -6124,13 +6132,13 @@
         <v>102</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D103" s="19" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E103" t="s">
         <v>242</v>
@@ -6154,13 +6162,13 @@
         <v>103</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D104" s="19" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E104" t="s">
         <v>242</v>
@@ -6184,13 +6192,13 @@
         <v>104</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D105" s="19" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E105" t="s">
         <v>242</v>
@@ -6214,13 +6222,13 @@
         <v>105</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D106" s="19" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E106" t="s">
         <v>242</v>
@@ -6244,13 +6252,13 @@
         <v>106</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D107" s="19" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E107" t="s">
         <v>242</v>
@@ -6274,13 +6282,13 @@
         <v>107</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D108" s="19" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E108" t="s">
         <v>242</v>
@@ -6295,7 +6303,7 @@
         <v>182</v>
       </c>
       <c r="J108" t="s">
-        <v>118</v>
+        <v>323</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="34">
@@ -6304,28 +6312,28 @@
         <v>108</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="D109" s="21" t="s">
-        <v>350</v>
+        <v>346</v>
+      </c>
+      <c r="D109" s="19" t="s">
+        <v>347</v>
       </c>
       <c r="E109" t="s">
-        <v>351</v>
+        <v>242</v>
       </c>
       <c r="F109" t="s">
-        <v>352</v>
+        <v>243</v>
       </c>
       <c r="G109" t="s">
         <v>244</v>
       </c>
       <c r="H109" t="s">
-        <v>15</v>
+        <v>182</v>
       </c>
       <c r="J109" t="s">
-        <v>353</v>
+        <v>118</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="34">
@@ -6334,13 +6342,13 @@
         <v>109</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="D110" s="14" t="s">
-        <v>247</v>
+        <v>349</v>
+      </c>
+      <c r="D110" s="21" t="s">
+        <v>350</v>
       </c>
       <c r="E110" t="s">
         <v>351</v>
@@ -6355,7 +6363,7 @@
         <v>15</v>
       </c>
       <c r="J110" t="s">
-        <v>105</v>
+        <v>353</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="34">
@@ -6364,13 +6372,13 @@
         <v>110</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D111" s="14" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E111" t="s">
         <v>351</v>
@@ -6394,13 +6402,13 @@
         <v>111</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D112" s="14" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E112" t="s">
         <v>351</v>
@@ -6424,13 +6432,13 @@
         <v>112</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="D113" s="19" t="s">
-        <v>256</v>
+        <v>359</v>
+      </c>
+      <c r="D113" s="14" t="s">
+        <v>253</v>
       </c>
       <c r="E113" t="s">
         <v>351</v>
@@ -6454,13 +6462,13 @@
         <v>113</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D114" s="19" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E114" t="s">
         <v>351</v>
@@ -6484,13 +6492,13 @@
         <v>114</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D115" s="19" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E115" t="s">
         <v>351</v>
@@ -6505,7 +6513,7 @@
         <v>15</v>
       </c>
       <c r="J115" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="34">
@@ -6514,13 +6522,13 @@
         <v>115</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D116" s="19" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E116" t="s">
         <v>351</v>
@@ -6535,7 +6543,7 @@
         <v>15</v>
       </c>
       <c r="J116" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="34">
@@ -6544,13 +6552,13 @@
         <v>116</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D117" s="19" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E117" t="s">
         <v>351</v>
@@ -6574,13 +6582,13 @@
         <v>117</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D118" s="19" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E118" t="s">
         <v>351</v>
@@ -6595,7 +6603,7 @@
         <v>15</v>
       </c>
       <c r="J118" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="34">
@@ -6604,13 +6612,13 @@
         <v>118</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D119" s="19" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E119" t="s">
         <v>351</v>
@@ -6625,7 +6633,7 @@
         <v>15</v>
       </c>
       <c r="J119" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="34">
@@ -6634,13 +6642,13 @@
         <v>119</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D120" s="19" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E120" t="s">
         <v>351</v>
@@ -6664,13 +6672,13 @@
         <v>120</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D121" s="19" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E121" t="s">
         <v>351</v>
@@ -6694,13 +6702,13 @@
         <v>121</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D122" s="19" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E122" t="s">
         <v>351</v>
@@ -6715,7 +6723,7 @@
         <v>15</v>
       </c>
       <c r="J122" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="34">
@@ -6724,13 +6732,13 @@
         <v>122</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D123" s="19" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E123" t="s">
         <v>351</v>
@@ -6745,7 +6753,7 @@
         <v>15</v>
       </c>
       <c r="J123" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="34">
@@ -6754,13 +6762,13 @@
         <v>123</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D124" s="19" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E124" t="s">
         <v>351</v>
@@ -6784,13 +6792,13 @@
         <v>124</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D125" s="19" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E125" t="s">
         <v>351</v>
@@ -6805,7 +6813,7 @@
         <v>15</v>
       </c>
       <c r="J125" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="34">
@@ -6814,13 +6822,13 @@
         <v>125</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D126" s="19" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E126" t="s">
         <v>351</v>
@@ -6835,7 +6843,7 @@
         <v>15</v>
       </c>
       <c r="J126" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="34">
@@ -6844,13 +6852,13 @@
         <v>126</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D127" s="19" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E127" t="s">
         <v>351</v>
@@ -6874,13 +6882,13 @@
         <v>127</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D128" s="19" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E128" t="s">
         <v>351</v>
@@ -6895,7 +6903,7 @@
         <v>15</v>
       </c>
       <c r="J128" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="34">
@@ -6904,13 +6912,13 @@
         <v>128</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D129" s="19" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E129" t="s">
         <v>351</v>
@@ -6925,7 +6933,7 @@
         <v>15</v>
       </c>
       <c r="J129" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="34">
@@ -6934,13 +6942,13 @@
         <v>129</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D130" s="19" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E130" t="s">
         <v>351</v>
@@ -6955,7 +6963,7 @@
         <v>15</v>
       </c>
       <c r="J130" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="34">
@@ -6964,13 +6972,13 @@
         <v>130</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D131" s="19" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E131" t="s">
         <v>351</v>
@@ -6985,22 +6993,22 @@
         <v>15</v>
       </c>
       <c r="J131" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
     </row>
     <row r="132" spans="1:10" ht="34">
       <c r="A132">
-        <f t="shared" ref="A132:A195" si="2">A131+1</f>
+        <f t="shared" si="1"/>
         <v>131</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D132" s="19" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E132" t="s">
         <v>351</v>
@@ -7015,22 +7023,22 @@
         <v>15</v>
       </c>
       <c r="J132" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="133" spans="1:10" ht="34">
       <c r="A133">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="A133:A196" si="2">A132+1</f>
         <v>132</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D133" s="19" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E133" t="s">
         <v>351</v>
@@ -7045,7 +7053,7 @@
         <v>15</v>
       </c>
       <c r="J133" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="34">
@@ -7054,13 +7062,13 @@
         <v>133</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D134" s="19" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E134" t="s">
         <v>351</v>
@@ -7075,7 +7083,7 @@
         <v>15</v>
       </c>
       <c r="J134" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="135" spans="1:10" ht="34">
@@ -7084,13 +7092,13 @@
         <v>134</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="D135" s="20" t="s">
-        <v>322</v>
+        <v>403</v>
+      </c>
+      <c r="D135" s="19" t="s">
+        <v>319</v>
       </c>
       <c r="E135" t="s">
         <v>351</v>
@@ -7105,7 +7113,7 @@
         <v>15</v>
       </c>
       <c r="J135" t="s">
-        <v>323</v>
+        <v>118</v>
       </c>
     </row>
     <row r="136" spans="1:10" ht="34">
@@ -7114,13 +7122,13 @@
         <v>135</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D136" s="20" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E136" t="s">
         <v>351</v>
@@ -7144,13 +7152,13 @@
         <v>136</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="D137" s="19" t="s">
-        <v>329</v>
+        <v>407</v>
+      </c>
+      <c r="D137" s="20" t="s">
+        <v>326</v>
       </c>
       <c r="E137" t="s">
         <v>351</v>
@@ -7174,13 +7182,13 @@
         <v>137</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D138" s="19" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E138" t="s">
         <v>351</v>
@@ -7204,13 +7212,13 @@
         <v>138</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D139" s="19" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E139" t="s">
         <v>351</v>
@@ -7234,13 +7242,13 @@
         <v>139</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D140" s="19" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E140" t="s">
         <v>351</v>
@@ -7264,13 +7272,13 @@
         <v>140</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D141" s="19" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E141" t="s">
         <v>351</v>
@@ -7294,13 +7302,13 @@
         <v>141</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D142" s="19" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E142" t="s">
         <v>351</v>
@@ -7324,13 +7332,13 @@
         <v>142</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D143" s="19" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E143" t="s">
         <v>351</v>
@@ -7345,7 +7353,7 @@
         <v>15</v>
       </c>
       <c r="J143" t="s">
-        <v>118</v>
+        <v>323</v>
       </c>
     </row>
     <row r="144" spans="1:10" ht="34">
@@ -7354,13 +7362,13 @@
         <v>143</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>644</v>
-      </c>
-      <c r="D144" s="11" t="s">
-        <v>647</v>
+        <v>421</v>
+      </c>
+      <c r="D144" s="19" t="s">
+        <v>347</v>
       </c>
       <c r="E144" t="s">
         <v>351</v>
@@ -7375,7 +7383,7 @@
         <v>15</v>
       </c>
       <c r="J144" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
     </row>
     <row r="145" spans="1:11" ht="34">
@@ -7384,13 +7392,13 @@
         <v>144</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D145" s="11" t="s">
-        <v>424</v>
+        <v>647</v>
       </c>
       <c r="E145" t="s">
         <v>351</v>
@@ -7414,13 +7422,13 @@
         <v>145</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D146" s="11" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E146" t="s">
         <v>351</v>
@@ -7444,19 +7452,19 @@
         <v>146</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="D147" s="22" t="s">
-        <v>429</v>
+        <v>646</v>
+      </c>
+      <c r="D147" s="11" t="s">
+        <v>426</v>
       </c>
       <c r="E147" t="s">
-        <v>430</v>
+        <v>351</v>
       </c>
       <c r="F147" t="s">
-        <v>635</v>
+        <v>352</v>
       </c>
       <c r="G147" t="s">
         <v>244</v>
@@ -7465,7 +7473,7 @@
         <v>15</v>
       </c>
       <c r="J147" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
     </row>
     <row r="148" spans="1:11" ht="34">
@@ -7474,13 +7482,13 @@
         <v>147</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="D148" s="22" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E148" t="s">
         <v>430</v>
@@ -7504,13 +7512,13 @@
         <v>148</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D149" s="22" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E149" t="s">
         <v>430</v>
@@ -7527,7 +7535,6 @@
       <c r="J149" t="s">
         <v>56</v>
       </c>
-      <c r="K149" s="5"/>
     </row>
     <row r="150" spans="1:11" ht="34">
       <c r="A150">
@@ -7535,13 +7542,13 @@
         <v>149</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D150" s="22" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E150" t="s">
         <v>430</v>
@@ -7558,6 +7565,7 @@
       <c r="J150" t="s">
         <v>56</v>
       </c>
+      <c r="K150" s="5"/>
     </row>
     <row r="151" spans="1:11" ht="34">
       <c r="A151">
@@ -7565,13 +7573,13 @@
         <v>150</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D151" s="22" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E151" t="s">
         <v>430</v>
@@ -7595,13 +7603,13 @@
         <v>151</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D152" s="22" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="E152" t="s">
         <v>430</v>
@@ -7625,13 +7633,13 @@
         <v>152</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>643</v>
+        <v>444</v>
       </c>
       <c r="D153" s="22" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E153" t="s">
         <v>430</v>
@@ -7655,13 +7663,13 @@
         <v>153</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>449</v>
+        <v>643</v>
       </c>
       <c r="D154" s="22" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E154" t="s">
         <v>430</v>
@@ -7685,13 +7693,13 @@
         <v>154</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D155" s="22" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="E155" t="s">
         <v>430</v>
@@ -7715,13 +7723,13 @@
         <v>155</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>640</v>
+        <v>452</v>
       </c>
       <c r="D156" s="22" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E156" t="s">
         <v>430</v>
@@ -7745,19 +7753,19 @@
         <v>156</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="D157" s="23" t="s">
-        <v>458</v>
+        <v>640</v>
+      </c>
+      <c r="D157" s="22" t="s">
+        <v>455</v>
       </c>
       <c r="E157" t="s">
-        <v>459</v>
+        <v>430</v>
       </c>
       <c r="F157" t="s">
-        <v>460</v>
+        <v>635</v>
       </c>
       <c r="G157" t="s">
         <v>244</v>
@@ -7775,13 +7783,13 @@
         <v>157</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="D158" s="22" t="s">
-        <v>463</v>
+        <v>457</v>
+      </c>
+      <c r="D158" s="23" t="s">
+        <v>458</v>
       </c>
       <c r="E158" t="s">
         <v>459</v>
@@ -7805,13 +7813,13 @@
         <v>158</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D159" s="22" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="E159" t="s">
         <v>459</v>
@@ -7835,13 +7843,13 @@
         <v>159</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D160" s="22" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E160" t="s">
         <v>459</v>
@@ -7865,13 +7873,13 @@
         <v>160</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>636</v>
+        <v>468</v>
       </c>
       <c r="D161" s="22" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E161" t="s">
         <v>459</v>
@@ -7895,13 +7903,13 @@
         <v>161</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>473</v>
+        <v>636</v>
       </c>
       <c r="D162" s="22" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E162" t="s">
         <v>459</v>
@@ -7925,13 +7933,13 @@
         <v>162</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D163" s="22" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E163" t="s">
         <v>459</v>
@@ -7955,13 +7963,13 @@
         <v>163</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="D164" s="24" t="s">
-        <v>480</v>
+        <v>476</v>
+      </c>
+      <c r="D164" s="22" t="s">
+        <v>477</v>
       </c>
       <c r="E164" t="s">
         <v>459</v>
@@ -7985,13 +7993,13 @@
         <v>164</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D165" s="24" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="E165" t="s">
         <v>459</v>
@@ -8015,13 +8023,13 @@
         <v>165</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D166" s="24" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="E166" t="s">
         <v>459</v>
@@ -8045,28 +8053,28 @@
         <v>166</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="D167" s="19" t="s">
-        <v>241</v>
+        <v>485</v>
+      </c>
+      <c r="D167" s="24" t="s">
+        <v>486</v>
       </c>
       <c r="E167" t="s">
-        <v>489</v>
+        <v>459</v>
       </c>
       <c r="F167" t="s">
-        <v>490</v>
+        <v>460</v>
       </c>
       <c r="G167" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="H167" t="s">
-        <v>182</v>
+        <v>15</v>
       </c>
       <c r="J167" t="s">
-        <v>235</v>
+        <v>56</v>
       </c>
     </row>
     <row r="168" spans="1:10" ht="34">
@@ -8075,13 +8083,13 @@
         <v>167</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="D168" s="7" t="s">
-        <v>11</v>
+        <v>488</v>
+      </c>
+      <c r="D168" s="19" t="s">
+        <v>241</v>
       </c>
       <c r="E168" t="s">
         <v>489</v>
@@ -8096,7 +8104,7 @@
         <v>182</v>
       </c>
       <c r="J168" t="s">
-        <v>94</v>
+        <v>235</v>
       </c>
     </row>
     <row r="169" spans="1:10" ht="34">
@@ -8105,13 +8113,13 @@
         <v>168</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>494</v>
-      </c>
-      <c r="D169" s="14" t="s">
-        <v>247</v>
+        <v>492</v>
+      </c>
+      <c r="D169" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="E169" t="s">
         <v>489</v>
@@ -8126,7 +8134,7 @@
         <v>182</v>
       </c>
       <c r="J169" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="170" spans="1:10" ht="34">
@@ -8135,13 +8143,13 @@
         <v>169</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D170" s="14" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E170" t="s">
         <v>489</v>
@@ -8165,13 +8173,13 @@
         <v>170</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D171" s="14" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E171" t="s">
         <v>489</v>
@@ -8195,13 +8203,13 @@
         <v>171</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>500</v>
-      </c>
-      <c r="D172" s="19" t="s">
-        <v>256</v>
+        <v>498</v>
+      </c>
+      <c r="D172" s="14" t="s">
+        <v>253</v>
       </c>
       <c r="E172" t="s">
         <v>489</v>
@@ -8225,13 +8233,13 @@
         <v>172</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D173" s="19" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E173" t="s">
         <v>489</v>
@@ -8255,13 +8263,13 @@
         <v>173</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D174" s="19" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E174" t="s">
         <v>489</v>
@@ -8273,10 +8281,10 @@
         <v>14</v>
       </c>
       <c r="H174" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="J174" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="175" spans="1:10" ht="34">
@@ -8285,13 +8293,13 @@
         <v>174</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D175" s="19" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E175" t="s">
         <v>489</v>
@@ -8303,10 +8311,10 @@
         <v>14</v>
       </c>
       <c r="H175" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="J175" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
     </row>
     <row r="176" spans="1:10" ht="34">
@@ -8315,13 +8323,13 @@
         <v>175</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D176" s="19" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E176" t="s">
         <v>489</v>
@@ -8345,13 +8353,13 @@
         <v>176</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D177" s="19" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E177" t="s">
         <v>489</v>
@@ -8366,7 +8374,7 @@
         <v>182</v>
       </c>
       <c r="J177" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="178" spans="1:10" ht="34">
@@ -8375,13 +8383,13 @@
         <v>177</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D178" s="19" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E178" t="s">
         <v>489</v>
@@ -8396,7 +8404,7 @@
         <v>182</v>
       </c>
       <c r="J178" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
     </row>
     <row r="179" spans="1:10" ht="34">
@@ -8405,13 +8413,13 @@
         <v>178</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D179" s="19" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E179" t="s">
         <v>489</v>
@@ -8435,13 +8443,13 @@
         <v>179</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D180" s="19" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E180" t="s">
         <v>489</v>
@@ -8465,13 +8473,13 @@
         <v>180</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D181" s="19" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E181" t="s">
         <v>489</v>
@@ -8483,10 +8491,10 @@
         <v>14</v>
       </c>
       <c r="H181" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="J181" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="182" spans="1:10" ht="34">
@@ -8495,13 +8503,13 @@
         <v>181</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D182" s="19" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E182" t="s">
         <v>489</v>
@@ -8513,10 +8521,10 @@
         <v>14</v>
       </c>
       <c r="H182" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="J182" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
     </row>
     <row r="183" spans="1:10" ht="34">
@@ -8525,13 +8533,13 @@
         <v>182</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D183" s="19" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E183" t="s">
         <v>489</v>
@@ -8555,13 +8563,13 @@
         <v>183</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D184" s="19" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E184" t="s">
         <v>489</v>
@@ -8576,7 +8584,7 @@
         <v>182</v>
       </c>
       <c r="J184" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="185" spans="1:10" ht="34">
@@ -8585,13 +8593,13 @@
         <v>184</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D185" s="19" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E185" t="s">
         <v>489</v>
@@ -8606,7 +8614,7 @@
         <v>182</v>
       </c>
       <c r="J185" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
     </row>
     <row r="186" spans="1:10" ht="34">
@@ -8615,13 +8623,13 @@
         <v>185</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D186" s="19" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E186" t="s">
         <v>489</v>
@@ -8645,13 +8653,13 @@
         <v>186</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D187" s="19" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E187" t="s">
         <v>489</v>
@@ -8666,7 +8674,7 @@
         <v>182</v>
       </c>
       <c r="J187" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="188" spans="1:10" ht="34">
@@ -8675,13 +8683,13 @@
         <v>187</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D188" s="19" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E188" t="s">
         <v>489</v>
@@ -8696,7 +8704,7 @@
         <v>182</v>
       </c>
       <c r="J188" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
     </row>
     <row r="189" spans="1:10" ht="34">
@@ -8705,13 +8713,13 @@
         <v>188</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D189" s="19" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E189" t="s">
         <v>489</v>
@@ -8726,7 +8734,7 @@
         <v>182</v>
       </c>
       <c r="J189" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="190" spans="1:10" ht="34">
@@ -8735,13 +8743,13 @@
         <v>189</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D190" s="19" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E190" t="s">
         <v>489</v>
@@ -8756,7 +8764,7 @@
         <v>182</v>
       </c>
       <c r="J190" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
     </row>
     <row r="191" spans="1:10" ht="34">
@@ -8765,13 +8773,13 @@
         <v>190</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D191" s="19" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E191" t="s">
         <v>489</v>
@@ -8786,7 +8794,7 @@
         <v>182</v>
       </c>
       <c r="J191" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="192" spans="1:10" ht="34">
@@ -8795,13 +8803,13 @@
         <v>191</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D192" s="19" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E192" t="s">
         <v>489</v>
@@ -8816,7 +8824,7 @@
         <v>182</v>
       </c>
       <c r="J192" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
     </row>
     <row r="193" spans="1:10" ht="34">
@@ -8825,13 +8833,13 @@
         <v>192</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D193" s="19" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E193" t="s">
         <v>489</v>
@@ -8846,7 +8854,7 @@
         <v>182</v>
       </c>
       <c r="J193" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="194" spans="1:10" ht="34">
@@ -8855,13 +8863,13 @@
         <v>193</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="D194" s="20" t="s">
-        <v>322</v>
+        <v>542</v>
+      </c>
+      <c r="D194" s="19" t="s">
+        <v>319</v>
       </c>
       <c r="E194" t="s">
         <v>489</v>
@@ -8876,7 +8884,7 @@
         <v>182</v>
       </c>
       <c r="J194" t="s">
-        <v>323</v>
+        <v>118</v>
       </c>
     </row>
     <row r="195" spans="1:10" ht="34">
@@ -8885,13 +8893,13 @@
         <v>194</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D195" s="20" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E195" t="s">
         <v>489</v>
@@ -8911,17 +8919,17 @@
     </row>
     <row r="196" spans="1:10" ht="34">
       <c r="A196">
-        <f t="shared" ref="A196:A243" si="3">A195+1</f>
+        <f t="shared" si="2"/>
         <v>195</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="D196" s="19" t="s">
-        <v>329</v>
+        <v>546</v>
+      </c>
+      <c r="D196" s="20" t="s">
+        <v>326</v>
       </c>
       <c r="E196" t="s">
         <v>489</v>
@@ -8941,17 +8949,17 @@
     </row>
     <row r="197" spans="1:10" ht="34">
       <c r="A197">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="A197:A244" si="3">A196+1</f>
         <v>196</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D197" s="19" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E197" t="s">
         <v>489</v>
@@ -8975,13 +8983,13 @@
         <v>197</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D198" s="19" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E198" t="s">
         <v>489</v>
@@ -9005,13 +9013,13 @@
         <v>198</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D199" s="19" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E199" t="s">
         <v>489</v>
@@ -9035,13 +9043,13 @@
         <v>199</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D200" s="19" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E200" t="s">
         <v>489</v>
@@ -9065,13 +9073,13 @@
         <v>200</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D201" s="19" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E201" t="s">
         <v>489</v>
@@ -9095,13 +9103,13 @@
         <v>201</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D202" s="19" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E202" t="s">
         <v>489</v>
@@ -9116,7 +9124,7 @@
         <v>182</v>
       </c>
       <c r="J202" t="s">
-        <v>118</v>
+        <v>323</v>
       </c>
     </row>
     <row r="203" spans="1:10" ht="34">
@@ -9125,28 +9133,28 @@
         <v>202</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>564</v>
-      </c>
-      <c r="D203" s="21" t="s">
-        <v>565</v>
+        <v>560</v>
+      </c>
+      <c r="D203" s="19" t="s">
+        <v>347</v>
       </c>
       <c r="E203" t="s">
-        <v>561</v>
+        <v>489</v>
       </c>
       <c r="F203" t="s">
-        <v>562</v>
+        <v>490</v>
       </c>
       <c r="G203" t="s">
         <v>14</v>
       </c>
       <c r="H203" t="s">
-        <v>15</v>
+        <v>182</v>
       </c>
       <c r="J203" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
     </row>
     <row r="204" spans="1:10" ht="34">
@@ -9155,13 +9163,13 @@
         <v>203</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>661</v>
-      </c>
-      <c r="D204" s="14" t="s">
-        <v>247</v>
+        <v>564</v>
+      </c>
+      <c r="D204" s="21" t="s">
+        <v>565</v>
       </c>
       <c r="E204" t="s">
         <v>561</v>
@@ -9176,7 +9184,7 @@
         <v>15</v>
       </c>
       <c r="J204" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="205" spans="1:10" ht="34">
@@ -9185,13 +9193,13 @@
         <v>204</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D205" s="14" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E205" t="s">
         <v>561</v>
@@ -9215,13 +9223,13 @@
         <v>205</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D206" s="14" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E206" t="s">
         <v>561</v>
@@ -9245,13 +9253,13 @@
         <v>206</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>570</v>
-      </c>
-      <c r="D207" s="19" t="s">
-        <v>256</v>
+        <v>663</v>
+      </c>
+      <c r="D207" s="14" t="s">
+        <v>253</v>
       </c>
       <c r="E207" t="s">
         <v>561</v>
@@ -9275,13 +9283,13 @@
         <v>207</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D208" s="19" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E208" t="s">
         <v>561</v>
@@ -9305,13 +9313,13 @@
         <v>208</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D209" s="19" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E209" t="s">
         <v>561</v>
@@ -9326,7 +9334,7 @@
         <v>15</v>
       </c>
       <c r="J209" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="210" spans="1:10" ht="34">
@@ -9335,13 +9343,13 @@
         <v>209</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D210" s="19" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E210" t="s">
         <v>561</v>
@@ -9356,7 +9364,7 @@
         <v>15</v>
       </c>
       <c r="J210" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
     </row>
     <row r="211" spans="1:10" ht="34">
@@ -9365,13 +9373,13 @@
         <v>210</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D211" s="19" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E211" t="s">
         <v>561</v>
@@ -9395,13 +9403,13 @@
         <v>211</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D212" s="19" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E212" t="s">
         <v>561</v>
@@ -9416,7 +9424,7 @@
         <v>15</v>
       </c>
       <c r="J212" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="213" spans="1:10" ht="34">
@@ -9425,13 +9433,13 @@
         <v>212</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D213" s="19" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E213" t="s">
         <v>561</v>
@@ -9446,7 +9454,7 @@
         <v>15</v>
       </c>
       <c r="J213" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
     </row>
     <row r="214" spans="1:10" ht="34">
@@ -9455,13 +9463,13 @@
         <v>213</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D214" s="19" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E214" t="s">
         <v>561</v>
@@ -9485,13 +9493,13 @@
         <v>214</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D215" s="19" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E215" t="s">
         <v>561</v>
@@ -9515,13 +9523,13 @@
         <v>215</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D216" s="19" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E216" t="s">
         <v>561</v>
@@ -9536,7 +9544,7 @@
         <v>15</v>
       </c>
       <c r="J216" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="217" spans="1:10" ht="34">
@@ -9545,13 +9553,13 @@
         <v>216</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D217" s="19" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E217" t="s">
         <v>561</v>
@@ -9566,7 +9574,7 @@
         <v>15</v>
       </c>
       <c r="J217" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
     </row>
     <row r="218" spans="1:10" ht="34">
@@ -9575,13 +9583,13 @@
         <v>217</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D218" s="19" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E218" t="s">
         <v>561</v>
@@ -9605,13 +9613,13 @@
         <v>218</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D219" s="19" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E219" t="s">
         <v>561</v>
@@ -9626,7 +9634,7 @@
         <v>15</v>
       </c>
       <c r="J219" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="220" spans="1:10" ht="34">
@@ -9635,13 +9643,13 @@
         <v>219</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D220" s="19" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E220" t="s">
         <v>561</v>
@@ -9656,7 +9664,7 @@
         <v>15</v>
       </c>
       <c r="J220" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
     </row>
     <row r="221" spans="1:10" ht="34">
@@ -9665,13 +9673,13 @@
         <v>220</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D221" s="19" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E221" t="s">
         <v>561</v>
@@ -9695,13 +9703,13 @@
         <v>221</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D222" s="19" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E222" t="s">
         <v>561</v>
@@ -9716,7 +9724,7 @@
         <v>15</v>
       </c>
       <c r="J222" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="223" spans="1:10" ht="34">
@@ -9725,13 +9733,13 @@
         <v>222</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D223" s="19" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E223" t="s">
         <v>561</v>
@@ -9746,7 +9754,7 @@
         <v>15</v>
       </c>
       <c r="J223" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
     </row>
     <row r="224" spans="1:10" ht="34">
@@ -9755,13 +9763,13 @@
         <v>223</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D224" s="19" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E224" t="s">
         <v>561</v>
@@ -9776,7 +9784,7 @@
         <v>15</v>
       </c>
       <c r="J224" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="225" spans="1:10" ht="34">
@@ -9785,13 +9793,13 @@
         <v>224</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D225" s="19" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E225" t="s">
         <v>561</v>
@@ -9806,7 +9814,7 @@
         <v>15</v>
       </c>
       <c r="J225" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
     </row>
     <row r="226" spans="1:10" ht="34">
@@ -9815,13 +9823,13 @@
         <v>225</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D226" s="19" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E226" t="s">
         <v>561</v>
@@ -9836,7 +9844,7 @@
         <v>15</v>
       </c>
       <c r="J226" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="227" spans="1:10" ht="34">
@@ -9845,13 +9853,13 @@
         <v>226</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D227" s="19" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E227" t="s">
         <v>561</v>
@@ -9866,7 +9874,7 @@
         <v>15</v>
       </c>
       <c r="J227" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
     </row>
     <row r="228" spans="1:10" ht="34">
@@ -9875,13 +9883,13 @@
         <v>227</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D228" s="19" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E228" t="s">
         <v>561</v>
@@ -9896,7 +9904,7 @@
         <v>15</v>
       </c>
       <c r="J228" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="229" spans="1:10" ht="34">
@@ -9905,13 +9913,13 @@
         <v>228</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>614</v>
-      </c>
-      <c r="D229" s="20" t="s">
-        <v>322</v>
+        <v>612</v>
+      </c>
+      <c r="D229" s="19" t="s">
+        <v>319</v>
       </c>
       <c r="E229" t="s">
         <v>561</v>
@@ -9926,7 +9934,7 @@
         <v>15</v>
       </c>
       <c r="J229" t="s">
-        <v>323</v>
+        <v>118</v>
       </c>
     </row>
     <row r="230" spans="1:10" ht="34">
@@ -9935,13 +9943,13 @@
         <v>229</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D230" s="20" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E230" t="s">
         <v>561</v>
@@ -9965,13 +9973,13 @@
         <v>230</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>618</v>
-      </c>
-      <c r="D231" s="19" t="s">
-        <v>329</v>
+        <v>616</v>
+      </c>
+      <c r="D231" s="20" t="s">
+        <v>326</v>
       </c>
       <c r="E231" t="s">
         <v>561</v>
@@ -9995,13 +10003,13 @@
         <v>231</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D232" s="19" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E232" t="s">
         <v>561</v>
@@ -10025,13 +10033,13 @@
         <v>232</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D233" s="19" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E233" t="s">
         <v>561</v>
@@ -10055,13 +10063,13 @@
         <v>233</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D234" s="19" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E234" t="s">
         <v>561</v>
@@ -10085,13 +10093,13 @@
         <v>234</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D235" s="19" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E235" t="s">
         <v>561</v>
@@ -10115,13 +10123,13 @@
         <v>235</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C236" s="5" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D236" s="19" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E236" t="s">
         <v>561</v>
@@ -10145,13 +10153,13 @@
         <v>236</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C237" s="5" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D237" s="19" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E237" t="s">
         <v>561</v>
@@ -10166,7 +10174,7 @@
         <v>15</v>
       </c>
       <c r="J237" t="s">
-        <v>118</v>
+        <v>323</v>
       </c>
     </row>
     <row r="238" spans="1:10" ht="34">
@@ -10175,13 +10183,13 @@
         <v>237</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>648</v>
-      </c>
-      <c r="D238" s="11" t="s">
-        <v>647</v>
+        <v>630</v>
+      </c>
+      <c r="D238" s="19" t="s">
+        <v>347</v>
       </c>
       <c r="E238" t="s">
         <v>561</v>
@@ -10196,7 +10204,7 @@
         <v>15</v>
       </c>
       <c r="J238" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
     </row>
     <row r="239" spans="1:10" ht="34">
@@ -10205,13 +10213,13 @@
         <v>238</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D239" s="11" t="s">
-        <v>424</v>
+        <v>647</v>
       </c>
       <c r="E239" t="s">
         <v>561</v>
@@ -10235,13 +10243,13 @@
         <v>239</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D240" s="11" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E240" t="s">
         <v>561</v>
@@ -10259,33 +10267,33 @@
         <v>105</v>
       </c>
     </row>
-    <row r="241" spans="1:10" s="25" customFormat="1" ht="34">
+    <row r="241" spans="1:10" ht="34">
       <c r="A241">
         <f t="shared" si="3"/>
         <v>240</v>
       </c>
-      <c r="B241" s="26" t="s">
-        <v>651</v>
-      </c>
-      <c r="C241" s="26" t="s">
-        <v>654</v>
-      </c>
-      <c r="D241" s="26" t="s">
-        <v>652</v>
-      </c>
-      <c r="E241" s="25" t="s">
+      <c r="B241" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="C241" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="D241" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="E241" t="s">
         <v>561</v>
       </c>
-      <c r="F241" s="25" t="s">
+      <c r="F241" t="s">
         <v>562</v>
       </c>
-      <c r="G241" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="H241" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="J241" s="25" t="s">
+      <c r="G241" t="s">
+        <v>14</v>
+      </c>
+      <c r="H241" t="s">
+        <v>15</v>
+      </c>
+      <c r="J241" t="s">
         <v>105</v>
       </c>
     </row>
@@ -10295,13 +10303,13 @@
         <v>241</v>
       </c>
       <c r="B242" s="26" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="C242" s="26" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D242" s="26" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="E242" s="25" t="s">
         <v>561</v>
@@ -10325,13 +10333,13 @@
         <v>242</v>
       </c>
       <c r="B243" s="26" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C243" s="26" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="D243" s="26" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="E243" s="25" t="s">
         <v>561</v>
@@ -10349,9 +10357,39 @@
         <v>105</v>
       </c>
     </row>
-    <row r="244" spans="1:10">
-      <c r="D244" s="11"/>
-      <c r="E244" s="5"/>
+    <row r="244" spans="1:10" s="25" customFormat="1" ht="34">
+      <c r="A244">
+        <f t="shared" si="3"/>
+        <v>243</v>
+      </c>
+      <c r="B244" s="26" t="s">
+        <v>658</v>
+      </c>
+      <c r="C244" s="26" t="s">
+        <v>653</v>
+      </c>
+      <c r="D244" s="26" t="s">
+        <v>659</v>
+      </c>
+      <c r="E244" s="25" t="s">
+        <v>561</v>
+      </c>
+      <c r="F244" s="25" t="s">
+        <v>562</v>
+      </c>
+      <c r="G244" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H244" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="J244" s="25" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10">
+      <c r="D245" s="11"/>
+      <c r="E245" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
